--- a/biology/Botanique/Bon_père/Bon_père.xlsx
+++ b/biology/Botanique/Bon_père/Bon_père.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bon_p%C3%A8re</t>
+          <t>Bon_père</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bon père est une variété de pommes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bon_p%C3%A8re</t>
+          <t>Bon_père</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est cultivée dans une aire très restreinte, moins de trois cents communes dans le Sud du Pays d'Auge et l'Ouest du Pays d'Ouche. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bon_p%C3%A8re</t>
+          <t>Bon_père</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un fruit acidulé, oblong, à l'épiderme souvent verdâtre, parfois saumon au soleil mais toujours « collant ».
 Le port de l'arbre est retombant. Il est de floraison précoce. 
-Il existe une variante à épiderme rugueux, peu répandue, la Bon père gris. Elle arrive à maturité en octobre-novembre[1].
+Il existe une variante à épiderme rugueux, peu répandue, la Bon père gris. Elle arrive à maturité en octobre-novembre.
 </t>
         </is>
       </c>
